--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_113__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_113__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,25 +5417,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.8014469146728516</c:v>
+                  <c:v>-0.8014498949050903</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1095357090234756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.979838132858276</c:v>
+                  <c:v>3.979844331741333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.258216619491577</c:v>
+                  <c:v>1.258218050003052</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>92.75244140625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.62353515625</c:v>
+                  <c:v>68.62351989746094</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3428116142749786</c:v>
+                  <c:v>0.3428086936473846</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.3422225117683411</c:v>
@@ -5447,7 +5447,7 @@
                   <c:v>0.3419426679611206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.02701568603516</c:v>
+                  <c:v>94.02700805664062</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.2800946533679962</c:v>
@@ -5459,10 +5459,10 @@
                   <c:v>70.03692626953125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93.19522857666016</c:v>
+                  <c:v>93.19524383544922</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.21541595458984</c:v>
+                  <c:v>85.21540832519531</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>35.81187057495117</c:v>
@@ -5471,7 +5471,7 @@
                   <c:v>94.662841796875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2738554775714874</c:v>
+                  <c:v>0.2738551199436188</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>93.54692077636719</c:v>
@@ -5480,31 +5480,31 @@
                   <c:v>0.2274284958839417</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>89.89511871337891</c:v>
+                  <c:v>89.89511108398438</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2084395885467529</c:v>
+                  <c:v>0.2084392160177231</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2251659035682678</c:v>
+                  <c:v>0.225165531039238</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.97017502784729</c:v>
+                  <c:v>-0.9701720476150513</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.2560779452323914</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3165588080883026</c:v>
+                  <c:v>0.3165540397167206</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.06365367770195007</c:v>
+                  <c:v>0.06365478038787842</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>86.14004516601562</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1805825084447861</c:v>
+                  <c:v>0.1805854588747025</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>94.31226348876953</c:v>
@@ -5513,112 +5513,112 @@
                   <c:v>79.37841796875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.341076672077179</c:v>
+                  <c:v>0.3410795927047729</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>93.16884613037109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.4391929507255554</c:v>
+                  <c:v>-0.4391922056674957</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.19486999511719</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.430152416229248</c:v>
+                  <c:v>-1.430153846740723</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>89.16017913818359</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>54.61970138549805</c:v>
+                  <c:v>54.61970901489258</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>26.88948822021484</c:v>
+                  <c:v>26.88948249816895</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>94.62962341308594</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3178309500217438</c:v>
+                  <c:v>0.3178265392780304</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>90.61837768554688</c:v>
+                  <c:v>90.61836242675781</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>93.91526031494141</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.2902706563472748</c:v>
+                  <c:v>0.2902677059173584</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2831245958805084</c:v>
+                  <c:v>0.283121645450592</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.48974609375</c:v>
+                  <c:v>94.48973083496094</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-1.939008951187134</c:v>
+                  <c:v>-1.939005732536316</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.3368644416332245</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.26315307617188</c:v>
+                  <c:v>94.26313781738281</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>93.76760101318359</c:v>
+                  <c:v>93.76761627197266</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.04773335158824921</c:v>
+                  <c:v>-0.04774219170212746</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>94.54904174804688</c:v>
+                  <c:v>94.54902648925781</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93.70388793945312</c:v>
+                  <c:v>93.70388031005859</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>94.54679107666016</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1900357306003571</c:v>
+                  <c:v>0.1900335252285004</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>94.63368225097656</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>94.48028564453125</c:v>
+                  <c:v>94.48029327392578</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.3461423814296722</c:v>
+                  <c:v>-0.3461361229419708</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>94.33165740966797</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.8382912874221802</c:v>
+                  <c:v>-0.838286817073822</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.4527667164802551</c:v>
+                  <c:v>-0.4527744650840759</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>40.67435455322266</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.3386141359806061</c:v>
+                  <c:v>0.3386111855506897</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>88.10941314697266</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.3248816430568695</c:v>
+                  <c:v>0.3248845934867859</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>78.0130615234375</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1366004049777985</c:v>
+                  <c:v>0.1365956217050552</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>94.66403961181641</c:v>
@@ -5633,7 +5633,7 @@
                   <c:v>89.24730682373047</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>91.25437164306641</c:v>
+                  <c:v>91.25436401367188</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0.3312972187995911</c:v>
@@ -5645,13 +5645,13 @@
                   <c:v>94.35684967041016</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>83.84626770019531</c:v>
+                  <c:v>83.84626007080078</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>83.70203399658203</c:v>
+                  <c:v>83.70201873779297</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04766486585140228</c:v>
+                  <c:v>0.04766008257865906</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>16.44235038757324</c:v>
@@ -5660,31 +5660,31 @@
                   <c:v>94.45355987548828</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>56.08157730102539</c:v>
+                  <c:v>56.08158111572266</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.2513273954391479</c:v>
+                  <c:v>0.2513318061828613</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.01058949250727892</c:v>
+                  <c:v>-0.01058838795870543</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>94.57843017578125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.9015137553215027</c:v>
+                  <c:v>-0.90151047706604</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.790854811668396</c:v>
+                  <c:v>1.79086172580719</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>94.51322174072266</c:v>
+                  <c:v>94.51320648193359</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.2429647892713547</c:v>
+                  <c:v>0.2429607361555099</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>93.25785064697266</c:v>
+                  <c:v>93.25784301757812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.8014469146728516</v>
+        <v>-0.8014498949050903</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>3.979838132858276</v>
+        <v>3.979844331741333</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.258216619491577</v>
+        <v>1.258218050003052</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6539,7 +6539,7 @@
         <v>48.757</v>
       </c>
       <c r="F7">
-        <v>68.62353515625</v>
+        <v>68.62351989746094</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3428116142749786</v>
+        <v>0.3428086936473846</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>94.02701568603516</v>
+        <v>94.02700805664062</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>93.19522857666016</v>
+        <v>93.19524383544922</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>85.21541595458984</v>
+        <v>85.21540832519531</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.2738554775714874</v>
+        <v>0.2738551199436188</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>89.89511871337891</v>
+        <v>89.89511108398438</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2084395885467529</v>
+        <v>0.2084392160177231</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2251659035682678</v>
+        <v>0.225165531039238</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.97017502784729</v>
+        <v>-0.9701720476150513</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.3165588080883026</v>
+        <v>0.3165540397167206</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.06365367770195007</v>
+        <v>0.06365478038787842</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.1805825084447861</v>
+        <v>0.1805854588747025</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.341076672077179</v>
+        <v>0.3410795927047729</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.4391929507255554</v>
+        <v>-0.4391922056674957</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.430152416229248</v>
+        <v>-1.430153846740723</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>54.61970138549805</v>
+        <v>54.61970901489258</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>26.88948822021484</v>
+        <v>26.88948249816895</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.3178309500217438</v>
+        <v>0.3178265392780304</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>90.61837768554688</v>
+        <v>90.61836242675781</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.2902706563472748</v>
+        <v>0.2902677059173584</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.2831245958805084</v>
+        <v>0.283121645450592</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>94.48974609375</v>
+        <v>94.48973083496094</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-1.939008951187134</v>
+        <v>-1.939005732536316</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>94.26315307617188</v>
+        <v>94.26313781738281</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>93.76760101318359</v>
+        <v>93.76761627197266</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-0.04773335158824921</v>
+        <v>-0.04774219170212746</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>94.54904174804688</v>
+        <v>94.54902648925781</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>93.70388793945312</v>
+        <v>93.70388031005859</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.1900357306003571</v>
+        <v>0.1900335252285004</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>94.0821</v>
       </c>
       <c r="F59">
-        <v>94.48028564453125</v>
+        <v>94.48029327392578</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.3461423814296722</v>
+        <v>-0.3461361229419708</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.8382912874221802</v>
+        <v>-0.838286817073822</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.4527667164802551</v>
+        <v>-0.4527744650840759</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.3386141359806061</v>
+        <v>0.3386111855506897</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.3248816430568695</v>
+        <v>0.3248845934867859</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.1366004049777985</v>
+        <v>0.1365956217050552</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>91.25437164306641</v>
+        <v>91.25436401367188</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>83.84626770019531</v>
+        <v>83.84626007080078</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>83.70203399658203</v>
+        <v>83.70201873779297</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.04766486585140228</v>
+        <v>0.04766008257865906</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>56.08157730102539</v>
+        <v>56.08158111572266</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.2513273954391479</v>
+        <v>0.2513318061828613</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.01058949250727892</v>
+        <v>-0.01058838795870543</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.9015137553215027</v>
+        <v>-0.90151047706604</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.790854811668396</v>
+        <v>1.79086172580719</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>94.51322174072266</v>
+        <v>94.51320648193359</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.2429647892713547</v>
+        <v>0.2429607361555099</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>93.25785064697266</v>
+        <v>93.25784301757812</v>
       </c>
     </row>
     <row r="92" spans="1:6">
